--- a/similarities/split_global/harmonic_similarity_timestamps_327.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_327.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab:maj6']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'A:min7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:20.628000', '0:01:30.551000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:33.354000', '0:00:38.139000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=80.628']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=33.354']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A', 'E', 'E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:58.300000', '0:01:04.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:00:14.752537', '0:00:30.298296')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=58.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:24.340331')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:43.560000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'A']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:07.990000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.740158', '0:00:10.780430')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=6.740158']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:13.620000', '0:01:21.040000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#'], ['B:7', 'E:maj', 'B:7']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:41.080000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.620000', '0:01:03.080000'), ('0:00:04.180000', '0:00:11.620000')]</t>
+          <t>('0:00:13.720000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=4.18']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:24.840000')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Eb/3', 'F:min'], ['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'C#:min'], ['B', 'A', 'E']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:20.996000', '0:00:24.398000'), ('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.921383', '0:00:29.008095'), ('0:00:00.268067', '0:00:08.504874')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=24.921383', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=0.268067']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_143</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:53.380000', '0:02:56.020000')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.635324', '0:00:05.811360')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=173.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-143#t=1.635324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000')]</t>
+          <t>('0:00:32.080000', '0:00:41.940000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.340000', '0:00:36.300000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:01:25.150000', '0:01:27.510000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:03:47.620000', '0:03:55.060000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:21.900000', '0:00:24.630000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=85.15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=227.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['Ab:7', 'Db:min7', 'Gb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:7/3', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:01.710000', '0:00:03.150000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:00.970000', '0:00:02.990000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=1.71</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=0.97</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
